--- a/data/trans_camb/P1426-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1426-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.531282820677474</v>
+        <v>-1.492215397812403</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.308375081898437</v>
+        <v>5.370961314663163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.306379670000513</v>
+        <v>-1.265224639318051</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.054083548854591</v>
+        <v>7.139719321450115</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9443467215135073</v>
+        <v>-0.9663546462082836</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.919957616359891</v>
+        <v>7.075459855293233</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.888100473209838</v>
+        <v>1.73079326486259</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.35320040678536</v>
+        <v>10.41809776867808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.808564721419558</v>
+        <v>1.873017865582471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.00277016088145</v>
+        <v>11.09964307684467</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.376475797023186</v>
+        <v>1.313709094881218</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.0031240012998</v>
+        <v>10.08381867135277</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3973037571558572</v>
+        <v>-0.4091199942852398</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.224404515276194</v>
+        <v>1.340782925110102</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3271615858238229</v>
+        <v>-0.304057807324896</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.640333624095228</v>
+        <v>1.681780638653687</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2587454111702802</v>
+        <v>-0.2449988401787409</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.820745706334806</v>
+        <v>1.817689360076105</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8420854590210742</v>
+        <v>0.7652689874240166</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.384425147727769</v>
+        <v>4.425694105306395</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.680670410914102</v>
+        <v>0.6497044698140648</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>4.121122776832421</v>
+        <v>4.463825577170805</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5071253891002522</v>
+        <v>0.4903833230041581</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.771372287305002</v>
+        <v>3.811363516785821</v>
       </c>
     </row>
     <row r="10">
@@ -778,13 +778,13 @@
         <v>0.4925258166235962</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.578388487870112</v>
+        <v>1.578388487870113</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2694180869721846</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.044505021829988</v>
+        <v>2.044505021829989</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5580116971439851</v>
+        <v>-0.5687984100616679</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.741825976527767</v>
+        <v>1.696373811080813</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.224427496621927</v>
+        <v>-0.2435141401949719</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7190359206691272</v>
+        <v>0.8211026555815182</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1842549915570565</v>
+        <v>-0.1823550985392179</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.5018132091258</v>
+        <v>1.486324756103954</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6801531405870198</v>
+        <v>0.6030617387511216</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.391969849644802</v>
+        <v>3.337619744703405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.178889293618357</v>
+        <v>1.186498494634443</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.223315853299034</v>
+        <v>2.336517523071055</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7340195507305237</v>
+        <v>0.7702459542459942</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.571531725606252</v>
+        <v>2.551922448346671</v>
       </c>
     </row>
     <row r="13">
@@ -856,13 +856,13 @@
         <v>0.5700952699419678</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1.826973898006418</v>
+        <v>1.826973898006419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3033006759348891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>2.301626301493749</v>
+        <v>2.301626301493751</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4626336106890044</v>
+        <v>-0.4831120733261033</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1.287538964150083</v>
+        <v>1.253892166266964</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2140714679973436</v>
+        <v>-0.2617004466883286</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5183249462225036</v>
+        <v>0.5779982615254267</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1783639393988363</v>
+        <v>-0.1709869658252093</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.239422157716624</v>
+        <v>1.24916548394118</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.003528523884684</v>
+        <v>1.075794611056858</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>5.225222435417413</v>
+        <v>5.17243422854437</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.219396592044966</v>
+        <v>2.060329959452513</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.373268417127056</v>
+        <v>4.537984084137421</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.088968868457221</v>
+        <v>1.229425653368676</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.827271252532911</v>
+        <v>3.821994457523592</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>0.1718583057089421</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.382855130701803</v>
+        <v>1.382855130701802</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-0.02314609050985909</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.181993972636782</v>
+        <v>-2.200524471031263</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3180559382571328</v>
+        <v>0.3427109116652276</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.291789748161551</v>
+        <v>-1.348085946948638</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.09719394806499848</v>
+        <v>-0.111592722337498</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.213108873434926</v>
+        <v>-1.179847501243362</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.580445549588648</v>
+        <v>0.6736242619614869</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.014800554023168</v>
+        <v>1.027056652581219</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.011392780758787</v>
+        <v>4.118237014700867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.731780906819861</v>
+        <v>1.759275952599483</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.664778671388058</v>
+        <v>2.638236109593592</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.022036706680774</v>
+        <v>1.080772341500995</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.986353570860604</v>
+        <v>2.97659016519885</v>
       </c>
     </row>
     <row r="19">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="n">
-        <v>-0.09532684147757715</v>
+        <v>0.00221801918301961</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7042253734934442</v>
+        <v>-0.6966427719121906</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1215305873841694</v>
+        <v>-0.08665557573240519</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6477052797711637</v>
+        <v>-0.6636689537550658</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2154835153452308</v>
+        <v>0.2083872408714094</v>
       </c>
     </row>
     <row r="21">
@@ -1058,19 +1058,19 @@
       </c>
       <c r="C21" s="6" t="inlineStr"/>
       <c r="D21" s="6" t="n">
-        <v>12.8946291587753</v>
+        <v>17.9204449183016</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.705519499809598</v>
+        <v>2.846226018306411</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.612216824630178</v>
+        <v>4.343586620687319</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.74814237563463</v>
+        <v>1.706140517430052</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>4.652070511610501</v>
+        <v>4.681866627927597</v>
       </c>
     </row>
     <row r="22">
@@ -1100,7 +1100,7 @@
         <v>0.03721047045298388</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.955575786342942</v>
+        <v>2.955575786342941</v>
       </c>
     </row>
     <row r="23">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6817642594063557</v>
+        <v>-0.7618064857825707</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.372792030390798</v>
+        <v>2.418071717902163</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.541448300958657</v>
+        <v>-0.5249074790181655</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.076233389997646</v>
+        <v>2.090772076264065</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.3694238974754512</v>
+        <v>-0.4263140909029985</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.450332467461696</v>
+        <v>2.422256290921111</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5435778171309225</v>
+        <v>0.5556138456655759</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.925591448619228</v>
+        <v>4.001416017534775</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8172788612754422</v>
+        <v>0.8567356895988908</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.496806015777326</v>
+        <v>3.468331944572857</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4717260506286918</v>
+        <v>0.4568087900532173</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.464605275988405</v>
+        <v>3.517049495254931</v>
       </c>
     </row>
     <row r="25">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3703474967200609</v>
+        <v>-0.3928166187548441</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.181333633411186</v>
+        <v>1.24343790513647</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2495409550259672</v>
+        <v>-0.2374448467291724</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.9388831563759995</v>
+        <v>0.9324323579621718</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1987474369964186</v>
+        <v>-0.2124071523095009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.216816257600694</v>
+        <v>1.216731161702659</v>
       </c>
     </row>
     <row r="27">
@@ -1215,22 +1215,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4731303896826354</v>
+        <v>0.4391392567449545</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.341028512171966</v>
+        <v>3.31832216509101</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5355662450238009</v>
+        <v>0.5655011986680594</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.327073540495029</v>
+        <v>2.239450483642278</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3163885226431885</v>
+        <v>0.2966710126111842</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.361231852316406</v>
+        <v>2.414614272806738</v>
       </c>
     </row>
     <row r="28">
